--- a/medicine/Mort/Décès_en_1900/Décès_en_1900.xlsx
+++ b/medicine/Mort/Décès_en_1900/Décès_en_1900.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1900</t>
+          <t>Décès_en_1900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1900</t>
+          <t>Décès_en_1900</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,7 +538,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>? janvier : Georges de Dramard, peintre français (° 23 juin 1838).
 7 janvier : Jean Gabriel Dufaud, médecin français, (° 9 septembre 1855).
@@ -554,7 +568,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1900</t>
+          <t>Décès_en_1900</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -572,7 +586,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>11 février : Anna Deybel, chanteuse et pianiste polonaise (° 11 novembre 1818).
 14 février : Giovanni Canestrini, naturaliste italien (° 26 décembre 1835).
@@ -587,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1900</t>
+          <t>Décès_en_1900</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,7 +621,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1er mars : Edvard Helsted, compositeur danois (° 8 décembre 1816).
 6 mars :
@@ -623,7 +641,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1900</t>
+          <t>Décès_en_1900</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,7 +659,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>3 avril :
 Joseph Bertrand, mathématicien français (° 11 mars 1822).
@@ -665,7 +685,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1900</t>
+          <t>Décès_en_1900</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,7 +703,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1er mai : Mihály Munkácsy, peintre hongrois (° 20 février 1844).
 3 mai : Édouard Lacretelle, peintre français (° 4 juin 1817).
@@ -700,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1900</t>
+          <t>Décès_en_1900</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -718,7 +740,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2 juin : Samory Touré, souverain africain et combattant contre la colonisation française en Afrique de l'ouest (° vers 1830).
 5 juin : Stephen Crane, écrivain américain (° 1er novembre 1871).
@@ -735,7 +759,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1900</t>
+          <t>Décès_en_1900</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -753,7 +777,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>3 juillet : Robert Murdoch Smith, archéologue et diplomate britannique (° 18 août 1835).
 4 juillet : Charles R. Adams, chanteur d'opéra et professeur de chant américain (° 9 février 1834).
@@ -769,7 +795,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1900</t>
+          <t>Décès_en_1900</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -787,7 +813,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1er août : Lagartijo (Rafael Molina Sánchez), matador espagnol (° 27 novembre 1841).
 4 août :
@@ -812,7 +840,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1900</t>
+          <t>Décès_en_1900</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -830,7 +858,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>3 septembre : Lorenzo D. Lewelling, homme politique américain (° 21 décembre 1846).
 4 septembre : Walter Griffiths, homme politique britannique (° 4 juillet 1867).
@@ -849,7 +879,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1900</t>
+          <t>Décès_en_1900</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -867,7 +897,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>7 octobre : Dominguín (Domingo Del Campo y Álvarez), matador espagnol (° 12 juin 1873).
 9 octobre : Heinrich von Herzogenberg, compositeur autrichien (° 10 juin 1843).
@@ -882,7 +914,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1900</t>
+          <t>Décès_en_1900</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,7 +932,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>9 novembre : Gheorghe Panaiteanu Bardasare, peintre, graveur et dessinateur roumain (° 22 avril 1816).
 11 novembre : Louis Hector Leroux, peintre d'histoire et portraitiste français (° 27 décembre 1829).
@@ -920,7 +954,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1900</t>
+          <t>Décès_en_1900</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -938,7 +972,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>2 décembre : Consalvo Carelli, peintre italien (° 29 mars 1818).
 4 décembre : Wilhelm Leibl, peintre allemand (° 23 octobre 1844).
@@ -958,7 +994,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1900</t>
+          <t>Décès_en_1900</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -976,7 +1012,9 @@
           <t>Date inconnue</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Risto Čajkanović, peintre et écrivain serbe (° 1850).
 Khachig Oskanian, écrivain et journaliste arménien (° 1818).</t>
